--- a/data/03.xlsx
+++ b/data/03.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Owner\Desktop\kadai\html_hosono_20_Javascript_Championship\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DAEA011-8275-4E08-83B2-BBEFB2E410EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEF017B8-A410-467B-9F7C-27924D279BFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{243E5485-A20C-482E-9284-B33C68E46099}"/>
   </bookViews>
@@ -1712,9 +1712,6 @@
     <t>PC (※)</t>
   </si>
   <si>
-    <t>PACIFIC ISLANDS(trust territory)</t>
-  </si>
-  <si>
     <t>太平洋諸島信託統治地域</t>
   </si>
   <si>
@@ -2471,16 +2468,16 @@
     <t>ジンバブエ共和国</t>
   </si>
   <si>
-    <t>country_code</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>name_jp</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>name_en</t>
-    <phoneticPr fontId="1"/>
+    <t>COUNTRY_CODE</t>
+  </si>
+  <si>
+    <t>NAME_EN</t>
+  </si>
+  <si>
+    <t>NAME_JP</t>
+  </si>
+  <si>
+    <t>PACIFIC ISLANDS(TRUST TERRITORY)</t>
   </si>
 </sst>
 </file>
@@ -2857,10 +2854,10 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
+        <v>811</v>
+      </c>
+      <c r="B1" t="s">
         <v>812</v>
-      </c>
-      <c r="B1" t="s">
-        <v>814</v>
       </c>
       <c r="C1" t="s">
         <v>813</v>
@@ -4917,934 +4914,934 @@
         <v>558</v>
       </c>
       <c r="B188" t="s">
+        <v>814</v>
+      </c>
+      <c r="C188" t="s">
         <v>559</v>
-      </c>
-      <c r="C188" t="s">
-        <v>560</v>
       </c>
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A189" t="s">
+        <v>560</v>
+      </c>
+      <c r="B189" t="s">
         <v>561</v>
       </c>
-      <c r="B189" t="s">
+      <c r="C189" t="s">
         <v>562</v>
-      </c>
-      <c r="C189" t="s">
-        <v>563</v>
       </c>
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A190" t="s">
+        <v>563</v>
+      </c>
+      <c r="B190" t="s">
         <v>564</v>
       </c>
-      <c r="B190" t="s">
+      <c r="C190" t="s">
         <v>565</v>
-      </c>
-      <c r="C190" t="s">
-        <v>566</v>
       </c>
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A191" t="s">
+        <v>566</v>
+      </c>
+      <c r="B191" t="s">
         <v>567</v>
       </c>
-      <c r="B191" t="s">
+      <c r="C191" t="s">
         <v>568</v>
-      </c>
-      <c r="C191" t="s">
-        <v>569</v>
       </c>
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A192" t="s">
+        <v>569</v>
+      </c>
+      <c r="B192" t="s">
         <v>570</v>
       </c>
-      <c r="B192" t="s">
+      <c r="C192" t="s">
         <v>571</v>
-      </c>
-      <c r="C192" t="s">
-        <v>572</v>
       </c>
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A193" t="s">
+        <v>572</v>
+      </c>
+      <c r="B193" t="s">
         <v>573</v>
       </c>
-      <c r="B193" t="s">
+      <c r="C193" t="s">
         <v>574</v>
-      </c>
-      <c r="C193" t="s">
-        <v>575</v>
       </c>
     </row>
     <row r="194" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A194" t="s">
+        <v>575</v>
+      </c>
+      <c r="B194" t="s">
         <v>576</v>
       </c>
-      <c r="B194" t="s">
+      <c r="C194" t="s">
         <v>577</v>
-      </c>
-      <c r="C194" t="s">
-        <v>578</v>
       </c>
     </row>
     <row r="195" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A195" t="s">
+        <v>578</v>
+      </c>
+      <c r="B195" t="s">
         <v>579</v>
       </c>
-      <c r="B195" t="s">
+      <c r="C195" t="s">
         <v>580</v>
-      </c>
-      <c r="C195" t="s">
-        <v>581</v>
       </c>
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A196" t="s">
+        <v>581</v>
+      </c>
+      <c r="B196" t="s">
         <v>582</v>
       </c>
-      <c r="B196" t="s">
+      <c r="C196" t="s">
         <v>583</v>
-      </c>
-      <c r="C196" t="s">
-        <v>584</v>
       </c>
     </row>
     <row r="197" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A197" t="s">
+        <v>584</v>
+      </c>
+      <c r="B197" t="s">
         <v>585</v>
       </c>
-      <c r="B197" t="s">
+      <c r="C197" t="s">
         <v>586</v>
-      </c>
-      <c r="C197" t="s">
-        <v>587</v>
       </c>
     </row>
     <row r="198" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A198" t="s">
+        <v>587</v>
+      </c>
+      <c r="B198" t="s">
         <v>588</v>
       </c>
-      <c r="B198" t="s">
+      <c r="C198" t="s">
         <v>589</v>
-      </c>
-      <c r="C198" t="s">
-        <v>590</v>
       </c>
     </row>
     <row r="199" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A199" t="s">
+        <v>590</v>
+      </c>
+      <c r="B199" t="s">
         <v>591</v>
       </c>
-      <c r="B199" t="s">
+      <c r="C199" t="s">
         <v>592</v>
-      </c>
-      <c r="C199" t="s">
-        <v>593</v>
       </c>
     </row>
     <row r="200" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A200" t="s">
+        <v>593</v>
+      </c>
+      <c r="B200" t="s">
         <v>594</v>
       </c>
-      <c r="B200" t="s">
+      <c r="C200" t="s">
         <v>595</v>
-      </c>
-      <c r="C200" t="s">
-        <v>596</v>
       </c>
     </row>
     <row r="201" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A201" t="s">
+        <v>596</v>
+      </c>
+      <c r="B201" t="s">
         <v>597</v>
       </c>
-      <c r="B201" t="s">
+      <c r="C201" t="s">
         <v>598</v>
-      </c>
-      <c r="C201" t="s">
-        <v>599</v>
       </c>
     </row>
     <row r="202" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A202" t="s">
+        <v>599</v>
+      </c>
+      <c r="B202" t="s">
         <v>600</v>
       </c>
-      <c r="B202" t="s">
+      <c r="C202" t="s">
         <v>601</v>
-      </c>
-      <c r="C202" t="s">
-        <v>602</v>
       </c>
     </row>
     <row r="203" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A203" t="s">
+        <v>602</v>
+      </c>
+      <c r="B203" t="s">
         <v>603</v>
       </c>
-      <c r="B203" t="s">
+      <c r="C203" t="s">
         <v>604</v>
-      </c>
-      <c r="C203" t="s">
-        <v>605</v>
       </c>
     </row>
     <row r="204" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A204" t="s">
+        <v>605</v>
+      </c>
+      <c r="B204" t="s">
         <v>606</v>
       </c>
-      <c r="B204" t="s">
+      <c r="C204" t="s">
         <v>607</v>
-      </c>
-      <c r="C204" t="s">
-        <v>608</v>
       </c>
     </row>
     <row r="205" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A205" t="s">
+        <v>608</v>
+      </c>
+      <c r="B205" t="s">
         <v>609</v>
       </c>
-      <c r="B205" t="s">
+      <c r="C205" t="s">
         <v>610</v>
-      </c>
-      <c r="C205" t="s">
-        <v>611</v>
       </c>
     </row>
     <row r="206" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A206" t="s">
+        <v>611</v>
+      </c>
+      <c r="B206" t="s">
         <v>612</v>
       </c>
-      <c r="B206" t="s">
+      <c r="C206" t="s">
         <v>613</v>
-      </c>
-      <c r="C206" t="s">
-        <v>614</v>
       </c>
     </row>
     <row r="207" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A207" t="s">
+        <v>614</v>
+      </c>
+      <c r="B207" t="s">
         <v>615</v>
       </c>
-      <c r="B207" t="s">
+      <c r="C207" t="s">
         <v>616</v>
-      </c>
-      <c r="C207" t="s">
-        <v>617</v>
       </c>
     </row>
     <row r="208" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A208" t="s">
+        <v>617</v>
+      </c>
+      <c r="B208" t="s">
         <v>618</v>
       </c>
-      <c r="B208" t="s">
+      <c r="C208" t="s">
         <v>619</v>
-      </c>
-      <c r="C208" t="s">
-        <v>620</v>
       </c>
     </row>
     <row r="209" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A209" t="s">
+        <v>620</v>
+      </c>
+      <c r="B209" t="s">
         <v>621</v>
       </c>
-      <c r="B209" t="s">
+      <c r="C209" t="s">
         <v>622</v>
-      </c>
-      <c r="C209" t="s">
-        <v>623</v>
       </c>
     </row>
     <row r="210" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A210" t="s">
+        <v>623</v>
+      </c>
+      <c r="B210" t="s">
         <v>624</v>
       </c>
-      <c r="B210" t="s">
+      <c r="C210" t="s">
         <v>625</v>
-      </c>
-      <c r="C210" t="s">
-        <v>626</v>
       </c>
     </row>
     <row r="211" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A211" t="s">
+        <v>626</v>
+      </c>
+      <c r="B211" t="s">
         <v>627</v>
       </c>
-      <c r="B211" t="s">
+      <c r="C211" t="s">
         <v>628</v>
-      </c>
-      <c r="C211" t="s">
-        <v>629</v>
       </c>
     </row>
     <row r="212" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A212" t="s">
+        <v>629</v>
+      </c>
+      <c r="B212" t="s">
         <v>630</v>
       </c>
-      <c r="B212" t="s">
+      <c r="C212" t="s">
         <v>631</v>
-      </c>
-      <c r="C212" t="s">
-        <v>632</v>
       </c>
     </row>
     <row r="213" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A213" t="s">
+        <v>632</v>
+      </c>
+      <c r="B213" t="s">
         <v>633</v>
       </c>
-      <c r="B213" t="s">
+      <c r="C213" t="s">
         <v>634</v>
-      </c>
-      <c r="C213" t="s">
-        <v>635</v>
       </c>
     </row>
     <row r="214" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A214" t="s">
+        <v>635</v>
+      </c>
+      <c r="B214" t="s">
         <v>636</v>
       </c>
-      <c r="B214" t="s">
+      <c r="C214" t="s">
         <v>637</v>
-      </c>
-      <c r="C214" t="s">
-        <v>638</v>
       </c>
     </row>
     <row r="215" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A215" t="s">
+        <v>638</v>
+      </c>
+      <c r="B215" t="s">
         <v>639</v>
       </c>
-      <c r="B215" t="s">
+      <c r="C215" t="s">
         <v>640</v>
-      </c>
-      <c r="C215" t="s">
-        <v>641</v>
       </c>
     </row>
     <row r="216" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A216" t="s">
+        <v>641</v>
+      </c>
+      <c r="B216" t="s">
         <v>642</v>
       </c>
-      <c r="B216" t="s">
+      <c r="C216" t="s">
         <v>643</v>
-      </c>
-      <c r="C216" t="s">
-        <v>644</v>
       </c>
     </row>
     <row r="217" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A217" t="s">
+        <v>644</v>
+      </c>
+      <c r="B217" t="s">
         <v>645</v>
       </c>
-      <c r="B217" t="s">
+      <c r="C217" t="s">
         <v>646</v>
-      </c>
-      <c r="C217" t="s">
-        <v>647</v>
       </c>
     </row>
     <row r="218" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A218" t="s">
+        <v>647</v>
+      </c>
+      <c r="B218" t="s">
         <v>648</v>
       </c>
-      <c r="B218" t="s">
+      <c r="C218" t="s">
         <v>649</v>
-      </c>
-      <c r="C218" t="s">
-        <v>650</v>
       </c>
     </row>
     <row r="219" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A219" t="s">
+        <v>650</v>
+      </c>
+      <c r="B219" t="s">
         <v>651</v>
       </c>
-      <c r="B219" t="s">
+      <c r="C219" t="s">
         <v>652</v>
-      </c>
-      <c r="C219" t="s">
-        <v>653</v>
       </c>
     </row>
     <row r="220" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A220" t="s">
+        <v>653</v>
+      </c>
+      <c r="B220" t="s">
         <v>654</v>
       </c>
-      <c r="B220" t="s">
+      <c r="C220" t="s">
         <v>655</v>
-      </c>
-      <c r="C220" t="s">
-        <v>656</v>
       </c>
     </row>
     <row r="221" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A221" t="s">
+        <v>656</v>
+      </c>
+      <c r="B221" t="s">
         <v>657</v>
       </c>
-      <c r="B221" t="s">
+      <c r="C221" t="s">
         <v>658</v>
-      </c>
-      <c r="C221" t="s">
-        <v>659</v>
       </c>
     </row>
     <row r="222" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A222" t="s">
+        <v>659</v>
+      </c>
+      <c r="B222" t="s">
         <v>660</v>
       </c>
-      <c r="B222" t="s">
+      <c r="C222" t="s">
         <v>661</v>
-      </c>
-      <c r="C222" t="s">
-        <v>662</v>
       </c>
     </row>
     <row r="223" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A223" t="s">
+        <v>662</v>
+      </c>
+      <c r="B223" t="s">
         <v>663</v>
       </c>
-      <c r="B223" t="s">
+      <c r="C223" t="s">
         <v>664</v>
-      </c>
-      <c r="C223" t="s">
-        <v>665</v>
       </c>
     </row>
     <row r="224" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A224" t="s">
+        <v>665</v>
+      </c>
+      <c r="B224" t="s">
         <v>666</v>
       </c>
-      <c r="B224" t="s">
+      <c r="C224" t="s">
         <v>667</v>
-      </c>
-      <c r="C224" t="s">
-        <v>668</v>
       </c>
     </row>
     <row r="225" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A225" t="s">
+        <v>668</v>
+      </c>
+      <c r="B225" t="s">
         <v>669</v>
       </c>
-      <c r="B225" t="s">
+      <c r="C225" t="s">
         <v>670</v>
-      </c>
-      <c r="C225" t="s">
-        <v>671</v>
       </c>
     </row>
     <row r="226" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A226" t="s">
+        <v>671</v>
+      </c>
+      <c r="B226" t="s">
         <v>672</v>
       </c>
-      <c r="B226" t="s">
+      <c r="C226" t="s">
         <v>673</v>
-      </c>
-      <c r="C226" t="s">
-        <v>674</v>
       </c>
     </row>
     <row r="227" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A227" t="s">
+        <v>674</v>
+      </c>
+      <c r="B227" t="s">
         <v>675</v>
       </c>
-      <c r="B227" t="s">
+      <c r="C227" t="s">
         <v>676</v>
-      </c>
-      <c r="C227" t="s">
-        <v>677</v>
       </c>
     </row>
     <row r="228" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A228" t="s">
+        <v>677</v>
+      </c>
+      <c r="B228" t="s">
         <v>678</v>
       </c>
-      <c r="B228" t="s">
+      <c r="C228" t="s">
         <v>679</v>
-      </c>
-      <c r="C228" t="s">
-        <v>680</v>
       </c>
     </row>
     <row r="229" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A229" t="s">
+        <v>680</v>
+      </c>
+      <c r="B229" t="s">
         <v>681</v>
       </c>
-      <c r="B229" t="s">
+      <c r="C229" t="s">
         <v>682</v>
-      </c>
-      <c r="C229" t="s">
-        <v>683</v>
       </c>
     </row>
     <row r="230" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A230" t="s">
+        <v>683</v>
+      </c>
+      <c r="B230" t="s">
         <v>684</v>
       </c>
-      <c r="B230" t="s">
+      <c r="C230" t="s">
         <v>685</v>
-      </c>
-      <c r="C230" t="s">
-        <v>686</v>
       </c>
     </row>
     <row r="231" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A231" t="s">
+        <v>686</v>
+      </c>
+      <c r="B231" t="s">
         <v>687</v>
       </c>
-      <c r="B231" t="s">
+      <c r="C231" t="s">
         <v>688</v>
-      </c>
-      <c r="C231" t="s">
-        <v>689</v>
       </c>
     </row>
     <row r="232" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A232" t="s">
+        <v>689</v>
+      </c>
+      <c r="B232" t="s">
         <v>690</v>
       </c>
-      <c r="B232" t="s">
+      <c r="C232" t="s">
         <v>691</v>
-      </c>
-      <c r="C232" t="s">
-        <v>692</v>
       </c>
     </row>
     <row r="233" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A233" t="s">
+        <v>692</v>
+      </c>
+      <c r="B233" t="s">
         <v>693</v>
       </c>
-      <c r="B233" t="s">
+      <c r="C233" t="s">
         <v>694</v>
-      </c>
-      <c r="C233" t="s">
-        <v>695</v>
       </c>
     </row>
     <row r="234" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A234" t="s">
+        <v>695</v>
+      </c>
+      <c r="B234" t="s">
         <v>696</v>
       </c>
-      <c r="B234" t="s">
+      <c r="C234" t="s">
         <v>697</v>
-      </c>
-      <c r="C234" t="s">
-        <v>698</v>
       </c>
     </row>
     <row r="235" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A235" t="s">
+        <v>698</v>
+      </c>
+      <c r="B235" t="s">
         <v>699</v>
       </c>
-      <c r="B235" t="s">
+      <c r="C235" t="s">
         <v>700</v>
-      </c>
-      <c r="C235" t="s">
-        <v>701</v>
       </c>
     </row>
     <row r="236" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A236" t="s">
+        <v>701</v>
+      </c>
+      <c r="B236" t="s">
         <v>702</v>
       </c>
-      <c r="B236" t="s">
+      <c r="C236" t="s">
         <v>703</v>
-      </c>
-      <c r="C236" t="s">
-        <v>704</v>
       </c>
     </row>
     <row r="237" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A237" t="s">
+        <v>704</v>
+      </c>
+      <c r="B237" t="s">
         <v>705</v>
       </c>
-      <c r="B237" t="s">
+      <c r="C237" t="s">
         <v>706</v>
-      </c>
-      <c r="C237" t="s">
-        <v>707</v>
       </c>
     </row>
     <row r="238" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A238" t="s">
+        <v>707</v>
+      </c>
+      <c r="B238" t="s">
         <v>708</v>
       </c>
-      <c r="B238" t="s">
+      <c r="C238" t="s">
         <v>709</v>
-      </c>
-      <c r="C238" t="s">
-        <v>710</v>
       </c>
     </row>
     <row r="239" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A239" t="s">
+        <v>710</v>
+      </c>
+      <c r="B239" t="s">
         <v>711</v>
       </c>
-      <c r="B239" t="s">
+      <c r="C239" t="s">
         <v>712</v>
-      </c>
-      <c r="C239" t="s">
-        <v>713</v>
       </c>
     </row>
     <row r="240" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A240" t="s">
+        <v>713</v>
+      </c>
+      <c r="B240" t="s">
         <v>714</v>
       </c>
-      <c r="B240" t="s">
+      <c r="C240" t="s">
         <v>715</v>
-      </c>
-      <c r="C240" t="s">
-        <v>716</v>
       </c>
     </row>
     <row r="241" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A241" t="s">
+        <v>716</v>
+      </c>
+      <c r="B241" t="s">
         <v>717</v>
       </c>
-      <c r="B241" t="s">
+      <c r="C241" t="s">
         <v>718</v>
-      </c>
-      <c r="C241" t="s">
-        <v>719</v>
       </c>
     </row>
     <row r="242" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A242" t="s">
+        <v>719</v>
+      </c>
+      <c r="B242" t="s">
         <v>720</v>
       </c>
-      <c r="B242" t="s">
+      <c r="C242" t="s">
         <v>721</v>
-      </c>
-      <c r="C242" t="s">
-        <v>722</v>
       </c>
     </row>
     <row r="243" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A243" t="s">
+        <v>722</v>
+      </c>
+      <c r="B243" t="s">
         <v>723</v>
       </c>
-      <c r="B243" t="s">
+      <c r="C243" t="s">
         <v>724</v>
-      </c>
-      <c r="C243" t="s">
-        <v>725</v>
       </c>
     </row>
     <row r="244" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A244" t="s">
+        <v>725</v>
+      </c>
+      <c r="B244" t="s">
         <v>726</v>
       </c>
-      <c r="B244" t="s">
+      <c r="C244" t="s">
         <v>727</v>
-      </c>
-      <c r="C244" t="s">
-        <v>728</v>
       </c>
     </row>
     <row r="245" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A245" t="s">
+        <v>728</v>
+      </c>
+      <c r="B245" t="s">
         <v>729</v>
       </c>
-      <c r="B245" t="s">
+      <c r="C245" t="s">
         <v>730</v>
-      </c>
-      <c r="C245" t="s">
-        <v>731</v>
       </c>
     </row>
     <row r="246" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A246" t="s">
+        <v>731</v>
+      </c>
+      <c r="B246" t="s">
         <v>732</v>
       </c>
-      <c r="B246" t="s">
+      <c r="C246" t="s">
         <v>733</v>
-      </c>
-      <c r="C246" t="s">
-        <v>734</v>
       </c>
     </row>
     <row r="247" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A247" t="s">
+        <v>734</v>
+      </c>
+      <c r="B247" t="s">
         <v>735</v>
       </c>
-      <c r="B247" t="s">
+      <c r="C247" t="s">
         <v>736</v>
-      </c>
-      <c r="C247" t="s">
-        <v>737</v>
       </c>
     </row>
     <row r="248" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A248" t="s">
+        <v>737</v>
+      </c>
+      <c r="B248" t="s">
         <v>738</v>
       </c>
-      <c r="B248" t="s">
+      <c r="C248" t="s">
         <v>739</v>
-      </c>
-      <c r="C248" t="s">
-        <v>740</v>
       </c>
     </row>
     <row r="249" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A249" t="s">
+        <v>740</v>
+      </c>
+      <c r="B249" t="s">
         <v>741</v>
       </c>
-      <c r="B249" t="s">
-        <v>742</v>
-      </c>
       <c r="C249" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
     </row>
     <row r="250" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A250" t="s">
+        <v>742</v>
+      </c>
+      <c r="B250" t="s">
         <v>743</v>
       </c>
-      <c r="B250" t="s">
+      <c r="C250" t="s">
         <v>744</v>
-      </c>
-      <c r="C250" t="s">
-        <v>745</v>
       </c>
     </row>
     <row r="251" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A251" t="s">
+        <v>745</v>
+      </c>
+      <c r="B251" t="s">
         <v>746</v>
       </c>
-      <c r="B251" t="s">
+      <c r="C251" t="s">
         <v>747</v>
-      </c>
-      <c r="C251" t="s">
-        <v>748</v>
       </c>
     </row>
     <row r="252" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A252" t="s">
+        <v>748</v>
+      </c>
+      <c r="B252" t="s">
         <v>749</v>
       </c>
-      <c r="B252" t="s">
+      <c r="C252" t="s">
         <v>750</v>
-      </c>
-      <c r="C252" t="s">
-        <v>751</v>
       </c>
     </row>
     <row r="253" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A253" t="s">
+        <v>751</v>
+      </c>
+      <c r="B253" t="s">
         <v>752</v>
       </c>
-      <c r="B253" t="s">
+      <c r="C253" t="s">
         <v>753</v>
-      </c>
-      <c r="C253" t="s">
-        <v>754</v>
       </c>
     </row>
     <row r="254" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A254" t="s">
+        <v>754</v>
+      </c>
+      <c r="B254" t="s">
         <v>755</v>
       </c>
-      <c r="B254" t="s">
+      <c r="C254" t="s">
         <v>756</v>
-      </c>
-      <c r="C254" t="s">
-        <v>757</v>
       </c>
     </row>
     <row r="255" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A255" t="s">
+        <v>757</v>
+      </c>
+      <c r="B255" t="s">
         <v>758</v>
       </c>
-      <c r="B255" t="s">
+      <c r="C255" t="s">
         <v>759</v>
-      </c>
-      <c r="C255" t="s">
-        <v>760</v>
       </c>
     </row>
     <row r="256" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A256" t="s">
+        <v>760</v>
+      </c>
+      <c r="B256" t="s">
         <v>761</v>
       </c>
-      <c r="B256" t="s">
+      <c r="C256" t="s">
         <v>762</v>
-      </c>
-      <c r="C256" t="s">
-        <v>763</v>
       </c>
     </row>
     <row r="257" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A257" t="s">
+        <v>763</v>
+      </c>
+      <c r="B257" t="s">
         <v>764</v>
       </c>
-      <c r="B257" t="s">
+      <c r="C257" t="s">
         <v>765</v>
-      </c>
-      <c r="C257" t="s">
-        <v>766</v>
       </c>
     </row>
     <row r="258" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A258" t="s">
+        <v>766</v>
+      </c>
+      <c r="B258" t="s">
         <v>767</v>
       </c>
-      <c r="B258" t="s">
+      <c r="C258" t="s">
         <v>768</v>
-      </c>
-      <c r="C258" t="s">
-        <v>769</v>
       </c>
     </row>
     <row r="259" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A259" t="s">
+        <v>769</v>
+      </c>
+      <c r="B259" t="s">
         <v>770</v>
       </c>
-      <c r="B259" t="s">
+      <c r="C259" t="s">
         <v>771</v>
-      </c>
-      <c r="C259" t="s">
-        <v>772</v>
       </c>
     </row>
     <row r="260" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A260" t="s">
+        <v>772</v>
+      </c>
+      <c r="B260" t="s">
         <v>773</v>
       </c>
-      <c r="B260" t="s">
+      <c r="C260" t="s">
         <v>774</v>
-      </c>
-      <c r="C260" t="s">
-        <v>775</v>
       </c>
     </row>
     <row r="261" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A261" t="s">
+        <v>775</v>
+      </c>
+      <c r="B261" t="s">
         <v>776</v>
       </c>
-      <c r="B261" t="s">
+      <c r="C261" t="s">
         <v>777</v>
-      </c>
-      <c r="C261" t="s">
-        <v>778</v>
       </c>
     </row>
     <row r="262" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A262" t="s">
+        <v>778</v>
+      </c>
+      <c r="B262" t="s">
         <v>779</v>
       </c>
-      <c r="B262" t="s">
+      <c r="C262" t="s">
         <v>780</v>
-      </c>
-      <c r="C262" t="s">
-        <v>781</v>
       </c>
     </row>
     <row r="263" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A263" t="s">
+        <v>781</v>
+      </c>
+      <c r="B263" t="s">
         <v>782</v>
       </c>
-      <c r="B263" t="s">
+      <c r="C263" t="s">
         <v>783</v>
-      </c>
-      <c r="C263" t="s">
-        <v>784</v>
       </c>
     </row>
     <row r="264" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A264" t="s">
+        <v>784</v>
+      </c>
+      <c r="B264" t="s">
         <v>785</v>
       </c>
-      <c r="B264" t="s">
+      <c r="C264" t="s">
         <v>786</v>
-      </c>
-      <c r="C264" t="s">
-        <v>787</v>
       </c>
     </row>
     <row r="265" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A265" t="s">
+        <v>787</v>
+      </c>
+      <c r="B265" t="s">
         <v>788</v>
       </c>
-      <c r="B265" t="s">
+      <c r="C265" t="s">
         <v>789</v>
-      </c>
-      <c r="C265" t="s">
-        <v>790</v>
       </c>
     </row>
     <row r="266" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A266" t="s">
+        <v>790</v>
+      </c>
+      <c r="B266" t="s">
         <v>791</v>
       </c>
-      <c r="B266" t="s">
+      <c r="C266" t="s">
         <v>792</v>
-      </c>
-      <c r="C266" t="s">
-        <v>793</v>
       </c>
     </row>
     <row r="267" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A267" t="s">
+        <v>793</v>
+      </c>
+      <c r="B267" t="s">
         <v>794</v>
       </c>
-      <c r="B267" t="s">
+      <c r="C267" t="s">
         <v>795</v>
-      </c>
-      <c r="C267" t="s">
-        <v>796</v>
       </c>
     </row>
     <row r="268" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A268" t="s">
+        <v>796</v>
+      </c>
+      <c r="B268" t="s">
         <v>797</v>
       </c>
-      <c r="B268" t="s">
+      <c r="C268" t="s">
         <v>798</v>
-      </c>
-      <c r="C268" t="s">
-        <v>799</v>
       </c>
     </row>
     <row r="269" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A269" t="s">
+        <v>799</v>
+      </c>
+      <c r="B269" t="s">
         <v>800</v>
       </c>
-      <c r="B269" t="s">
+      <c r="C269" t="s">
         <v>801</v>
-      </c>
-      <c r="C269" t="s">
-        <v>802</v>
       </c>
     </row>
     <row r="270" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A270" t="s">
+        <v>802</v>
+      </c>
+      <c r="B270" t="s">
         <v>803</v>
       </c>
-      <c r="B270" t="s">
+      <c r="C270" t="s">
         <v>804</v>
-      </c>
-      <c r="C270" t="s">
-        <v>805</v>
       </c>
     </row>
     <row r="271" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A271" t="s">
+        <v>805</v>
+      </c>
+      <c r="B271" t="s">
         <v>806</v>
       </c>
-      <c r="B271" t="s">
+      <c r="C271" t="s">
         <v>807</v>
-      </c>
-      <c r="C271" t="s">
-        <v>808</v>
       </c>
     </row>
     <row r="272" spans="1:3" x14ac:dyDescent="0.45">
       <c r="A272" t="s">
+        <v>808</v>
+      </c>
+      <c r="B272" t="s">
         <v>809</v>
       </c>
-      <c r="B272" t="s">
+      <c r="C272" t="s">
         <v>810</v>
-      </c>
-      <c r="C272" t="s">
-        <v>811</v>
       </c>
     </row>
   </sheetData>
